--- a/Таблицы.xlsx
+++ b/Таблицы.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иришка\Desktop\git hub\ProjectTest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DED9677-3F9C-41C9-AB46-1DB16D8135A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>кол-во</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +76,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +353,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Таблицы.xlsx
+++ b/Таблицы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иришка\Desktop\git hub\ProjectTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DED9677-3F9C-41C9-AB46-1DB16D8135A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FE2D1F-B9EE-4F0D-B6BA-40137DC1CD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -354,13 +355,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -374,6 +378,20 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Таблицы.xlsx
+++ b/Таблицы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иришка\Desktop\git hub\ProjectTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FE2D1F-B9EE-4F0D-B6BA-40137DC1CD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C72D550-7F9D-4708-BD68-991FFF63C91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -394,6 +394,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>44769</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>110</v>
+      </c>
+      <c r="D3">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Таблицы.xlsx
+++ b/Таблицы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иришка\Desktop\git hub\ProjectTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C72D550-7F9D-4708-BD68-991FFF63C91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6CB00E-7224-41A8-AD38-903851250D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -408,6 +408,20 @@
         <v>110</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>44770</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Таблицы.xlsx
+++ b/Таблицы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иришка\Desktop\git hub\ProjectTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6CB00E-7224-41A8-AD38-903851250D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0727CB-06F5-45CD-96F4-D6D8434A3C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -422,6 +422,20 @@
         <v>120</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>44771</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>130</v>
+      </c>
+      <c r="D5">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Таблицы.xlsx
+++ b/Таблицы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иришка\Desktop\git hub\ProjectTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0727CB-06F5-45CD-96F4-D6D8434A3C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5824110-C433-4C26-9053-B9B06D8D62CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,6 +436,20 @@
         <v>130</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>44772</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>130</v>
+      </c>
+      <c r="D6">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Таблицы.xlsx
+++ b/Таблицы.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иришка\Desktop\git hub\ProjectTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иришка\Desktop\irishka\ProjectTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5824110-C433-4C26-9053-B9B06D8D62CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC064B2-7F66-4DC9-AB0C-5C1FE59204F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,6 +450,20 @@
         <v>130</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>130</v>
+      </c>
+      <c r="D7">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
